--- a/icaRius/data/nbguerriers.xlsx
+++ b/icaRius/data/nbguerriers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t xml:space="preserve">royaume</t>
   </si>
@@ -34,6 +34,15 @@
     <t xml:space="preserve">nb_habitants</t>
   </si>
   <si>
+    <t xml:space="preserve">nb_chevaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nb_canicule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dist_royaume</t>
+  </si>
+  <si>
     <t xml:space="preserve">sexe</t>
   </si>
   <si>
@@ -62,9 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">Le royaume du Centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">femme</t>
   </si>
   <si>
     <t xml:space="preserve">La Burgondie</t>
@@ -203,10 +209,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -214,7 +220,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -233,13 +241,22 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>133618</v>
@@ -247,16 +264,25 @@
       <c r="D2" s="1" t="n">
         <v>376603</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>7</v>
+      <c r="E2" s="1" t="n">
+        <v>2050</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>132828</v>
@@ -264,16 +290,25 @@
       <c r="D3" s="1" t="n">
         <v>410265</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>7</v>
+      <c r="E3" s="1" t="n">
+        <v>2050</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>80545</v>
@@ -281,16 +316,25 @@
       <c r="D4" s="1" t="n">
         <v>209925</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>7</v>
+      <c r="E4" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>287303</v>
@@ -298,33 +342,51 @@
       <c r="D5" s="1" t="n">
         <v>799411</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>7</v>
+      <c r="E5" s="1" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>4411248</v>
+        <v>3411248</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>10836732</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>7</v>
+      <c r="E6" s="1" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>965461</v>
@@ -332,231 +394,304 @@
       <c r="D7" s="1" t="n">
         <v>1376932</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>7</v>
+      <c r="E7" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0</v>
+        <v>966684</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>1691733</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>14</v>
+        <f aca="false">2338598/2</f>
+        <v>1169299</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>966684</v>
+        <v>1235906</v>
       </c>
       <c r="D9" s="1" t="n">
-        <f aca="false">2338598/2</f>
-        <v>1169299</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>7</v>
+        <v>3459004</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0</v>
+        <v>5185346</v>
       </c>
       <c r="D10" s="1" t="n">
-        <f aca="false">2338598/2</f>
-        <v>1169299</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>14</v>
+        <v>6059363</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>1235906</v>
+        <v>2109834</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>3459004</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>7</v>
+        <v>6544014</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>2185346</v>
+        <v>1381729</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>6059363</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>7</v>
+        <v>3905246</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>2109834</v>
+        <v>1241442</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>6544014</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>7</v>
+        <v>3150135</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>1381729</v>
+        <v>2257058</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>3905246</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>7</v>
+        <v>6480587</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>2201194</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>6970123</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>1241442</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>3150135</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>7</v>
+      <c r="G15" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>2257058</v>
+        <v>2953274</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>6480587</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>7</v>
+        <v>8024738</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>2201194</v>
+        <v>1877806</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>6970123</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>7</v>
+        <v>4539124</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>2953274</v>
+        <v>129169</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>8024738</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>1877806</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>4539124</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>129169</v>
-      </c>
-      <c r="D20" s="1" t="n">
         <v>366629</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>7</v>
+      <c r="E18" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/icaRius/data/nbguerriers.xlsx
+++ b/icaRius/data/nbguerriers.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">nb_chevaux</t>
   </si>
   <si>
-    <t xml:space="preserve">Nb_canicule</t>
+    <t xml:space="preserve">nb_canicule</t>
   </si>
   <si>
     <t xml:space="preserve">dist_royaume</t>
@@ -212,7 +212,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -221,7 +221,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>

--- a/icaRius/data/nbguerriers.xlsx
+++ b/icaRius/data/nbguerriers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
   <si>
     <t xml:space="preserve">royaume</t>
   </si>
@@ -46,7 +46,10 @@
     <t xml:space="preserve">sexe</t>
   </si>
   <si>
-    <t xml:space="preserve">L’ile de la vieille dame</t>
+    <t xml:space="preserve">situation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’île de la vieille dame</t>
   </si>
   <si>
     <t xml:space="preserve">oui</t>
@@ -55,19 +58,25 @@
     <t xml:space="preserve">homme</t>
   </si>
   <si>
+    <t xml:space="preserve">Sud</t>
+  </si>
+  <si>
     <t xml:space="preserve">La terre de la Montagne pelée</t>
   </si>
   <si>
     <t xml:space="preserve">La terre d’Or</t>
   </si>
   <si>
-    <t xml:space="preserve">L’ile du Piton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’Ile des francs</t>
+    <t xml:space="preserve">L’île du Piton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’île des francs</t>
   </si>
   <si>
     <t xml:space="preserve">non</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nord</t>
   </si>
   <si>
     <t xml:space="preserve">Le royaume du Centre</t>
@@ -209,10 +218,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -251,13 +260,16 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>133618</v>
@@ -275,15 +287,18 @@
         <v>100</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>132828</v>
@@ -301,15 +316,18 @@
         <v>150</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>80545</v>
@@ -327,15 +345,18 @@
         <v>130</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>287303</v>
@@ -353,15 +374,18 @@
         <v>60</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3411248</v>
@@ -379,15 +403,18 @@
         <v>300</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>965461</v>
@@ -405,15 +432,18 @@
         <v>400</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>966684</v>
@@ -432,15 +462,18 @@
         <v>400</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>1235906</v>
@@ -458,15 +491,18 @@
         <v>350</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>5185346</v>
@@ -484,15 +520,18 @@
         <v>380</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>2109834</v>
@@ -510,15 +549,18 @@
         <v>250</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>1381729</v>
@@ -536,15 +578,18 @@
         <v>200</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1241442</v>
@@ -562,15 +607,18 @@
         <v>160</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>2257058</v>
@@ -588,15 +636,18 @@
         <v>320</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>2201194</v>
@@ -614,15 +665,18 @@
         <v>240</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>2953274</v>
@@ -640,15 +694,18 @@
         <v>120</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>1877806</v>
@@ -666,15 +723,18 @@
         <v>60</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>129169</v>
@@ -692,7 +752,10 @@
         <v>5</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
